--- a/data/CS1/case18_1/case18_1_base.xlsx
+++ b/data/CS1/case18_1/case18_1_base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_4\case18_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7BF9C5-65FF-4CD8-BFCC-5F31DEBF96B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F14D0-7BCB-45D2-83D5-6CBB2DA4C194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="23" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="33" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <sheet name="Profiles, Qc, Summer, S3" sheetId="45" r:id="rId26"/>
     <sheet name="EV Profiles" sheetId="58" r:id="rId27"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId28"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Base Consumption'!$A$1:$F$19</definedName>
   </definedNames>
@@ -167,323 +164,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="PV Profile"/>
-      <sheetName val="PV installed"/>
-      <sheetName val="PV Matlab"/>
-      <sheetName val="ES installed"/>
-      <sheetName val="ES Matlab"/>
-      <sheetName val="EV Distribution"/>
-      <sheetName val="EV Characterization"/>
-      <sheetName val="Pc, Winter, S1"/>
-      <sheetName val="Pc, Winter, S2"/>
-      <sheetName val="Pc, Winter, S3"/>
-      <sheetName val="Qc, Winter, S1"/>
-      <sheetName val="Qc, Winter, S2"/>
-      <sheetName val="Qc, Winter, S3"/>
-      <sheetName val="UpFlex, Winter"/>
-      <sheetName val="DownFlex, Winter"/>
-      <sheetName val="CostFlex, Winter"/>
-      <sheetName val="Pg, Winter, S1"/>
-      <sheetName val="Pg, Winter, S2"/>
-      <sheetName val="Pg, Winter, S3"/>
-      <sheetName val="Qg, Winter, S1"/>
-      <sheetName val="Qg, Winter, S2"/>
-      <sheetName val="Qg, Winter, S3"/>
-      <sheetName val="GenStatus, Winter"/>
-      <sheetName val="Pc, Summer, S1"/>
-      <sheetName val="Pc, Summer, S2"/>
-      <sheetName val="Pc, Summer, S3"/>
-      <sheetName val="Qc, Summer, S1"/>
-      <sheetName val="Qc, Summer, S2"/>
-      <sheetName val="Qc, Summer, S3"/>
-      <sheetName val="UpFlex, Summer"/>
-      <sheetName val="DownFlex, Summer"/>
-      <sheetName val="CostFlex, Summer"/>
-      <sheetName val="Pg, Summer, S1"/>
-      <sheetName val="Pg, Summer, S2"/>
-      <sheetName val="Pg, Summer, S3"/>
-      <sheetName val="Qg, Summer, S1"/>
-      <sheetName val="Qg, Summer, S2"/>
-      <sheetName val="Qg, Summer, S3"/>
-      <sheetName val="GenStatus, Summer"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="B2">
-            <v>1.2291000000000001</v>
-          </cell>
-          <cell r="C2">
-            <v>1.2701</v>
-          </cell>
-          <cell r="D2">
-            <v>1.1373</v>
-          </cell>
-          <cell r="E2">
-            <v>1.0780000000000001</v>
-          </cell>
-          <cell r="F2">
-            <v>0.88319999999999999</v>
-          </cell>
-          <cell r="G2">
-            <v>0.74960000000000004</v>
-          </cell>
-          <cell r="H2">
-            <v>0.91669999999999996</v>
-          </cell>
-          <cell r="I2">
-            <v>0.15920000000000001</v>
-          </cell>
-          <cell r="J2">
-            <v>0.14000000000000001</v>
-          </cell>
-          <cell r="K2">
-            <v>0.2041</v>
-          </cell>
-          <cell r="L2">
-            <v>0.1202</v>
-          </cell>
-          <cell r="M2">
-            <v>0.1502</v>
-          </cell>
-          <cell r="N2">
-            <v>0.23930000000000001</v>
-          </cell>
-          <cell r="O2">
-            <v>0.44090000000000001</v>
-          </cell>
-          <cell r="P2">
-            <v>0.47039999999999998</v>
-          </cell>
-          <cell r="Q2">
-            <v>0.46260000000000001</v>
-          </cell>
-          <cell r="R2">
-            <v>0.25950000000000001</v>
-          </cell>
-          <cell r="S2">
-            <v>0.52859999999999996</v>
-          </cell>
-          <cell r="T2">
-            <v>0.31019999999999998</v>
-          </cell>
-          <cell r="U2">
-            <v>0.21809999999999999</v>
-          </cell>
-          <cell r="V2">
-            <v>0.33119999999999999</v>
-          </cell>
-          <cell r="W2">
-            <v>0.20469999999999999</v>
-          </cell>
-          <cell r="X2">
-            <v>0.93430000000000002</v>
-          </cell>
-          <cell r="Y2">
-            <v>1.1263000000000001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>-2.7749999999999999</v>
-          </cell>
-          <cell r="C3">
-            <v>-2.9674</v>
-          </cell>
-          <cell r="D3">
-            <v>-3.3374000000000001</v>
-          </cell>
-          <cell r="E3">
-            <v>-3.6000999999999999</v>
-          </cell>
-          <cell r="F3">
-            <v>-3.8479999999999999</v>
-          </cell>
-          <cell r="G3">
-            <v>-4.1994999999999996</v>
-          </cell>
-          <cell r="H3">
-            <v>-4.0071000000000003</v>
-          </cell>
-          <cell r="I3">
-            <v>-4.4949399999999997</v>
-          </cell>
-          <cell r="J3">
-            <v>-4.0768399999999998</v>
-          </cell>
-          <cell r="K3">
-            <v>-5.9882099999999996</v>
-          </cell>
-          <cell r="L3">
-            <v>-5.9268400000000003</v>
-          </cell>
-          <cell r="M3">
-            <v>-5.4180400000000004</v>
-          </cell>
-          <cell r="N3">
-            <v>-5.1936400000000003</v>
-          </cell>
-          <cell r="O3">
-            <v>-5.0143700000000004</v>
-          </cell>
-          <cell r="P3">
-            <v>-4.7264200000000001</v>
-          </cell>
-          <cell r="Q3">
-            <v>-4.3010599999999997</v>
-          </cell>
-          <cell r="R3">
-            <v>-4.0217400000000003</v>
-          </cell>
-          <cell r="S3">
-            <v>-3.5990600000000001</v>
-          </cell>
-          <cell r="T3">
-            <v>-2.28443</v>
-          </cell>
-          <cell r="U3">
-            <v>-2.5566200000000001</v>
-          </cell>
-          <cell r="V3">
-            <v>-2.7024599999999999</v>
-          </cell>
-          <cell r="W3">
-            <v>-2.9013499999999999</v>
-          </cell>
-          <cell r="X3">
-            <v>-2.3050999999999999</v>
-          </cell>
-          <cell r="Y3">
-            <v>-2.4493999999999998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>2.6733899999999999</v>
-          </cell>
-          <cell r="C4">
-            <v>2.86008</v>
-          </cell>
-          <cell r="D4">
-            <v>3.2068099999999999</v>
-          </cell>
-          <cell r="E4">
-            <v>3.4506100000000002</v>
-          </cell>
-          <cell r="F4">
-            <v>3.6728499999999999</v>
-          </cell>
-          <cell r="G4">
-            <v>4.0105000000000004</v>
-          </cell>
-          <cell r="H4">
-            <v>3.8235000000000001</v>
-          </cell>
-          <cell r="I4">
-            <v>4.3147900000000003</v>
-          </cell>
-          <cell r="J4">
-            <v>3.9522900000000001</v>
-          </cell>
-          <cell r="K4">
-            <v>4.5098599999999998</v>
-          </cell>
-          <cell r="L4">
-            <v>4.5453700000000001</v>
-          </cell>
-          <cell r="M4">
-            <v>4.2549099999999997</v>
-          </cell>
-          <cell r="N4">
-            <v>4.1115000000000004</v>
-          </cell>
-          <cell r="O4">
-            <v>4.0058199999999999</v>
-          </cell>
-          <cell r="P4">
-            <v>3.7540800000000001</v>
-          </cell>
-          <cell r="Q4">
-            <v>3.4178700000000002</v>
-          </cell>
-          <cell r="R4">
-            <v>3.1840099999999998</v>
-          </cell>
-          <cell r="S4">
-            <v>2.84572</v>
-          </cell>
-          <cell r="T4">
-            <v>2.2273399999999999</v>
-          </cell>
-          <cell r="U4">
-            <v>2.4930400000000001</v>
-          </cell>
-          <cell r="V4">
-            <v>2.6491400000000001</v>
-          </cell>
-          <cell r="W4">
-            <v>2.85364</v>
-          </cell>
-          <cell r="X4">
-            <v>2.2204999999999999</v>
-          </cell>
-          <cell r="Y4">
-            <v>2.3612000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,12 +433,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -766,7 +446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -774,7 +454,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -795,9 +475,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -874,7 +554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -975,7 +655,7 @@
         <v>0.15780159544814121</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1076,7 +756,7 @@
         <v>0.28952028327891738</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1177,7 +857,7 @@
         <v>1.0723765177105855</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1278,7 +958,7 @@
         <v>1.6302160105127963</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1379,7 +1059,7 @@
         <v>0.62473711870996973</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1480,7 +1160,7 @@
         <v>0.16088387266147566</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1581,7 +1261,7 @@
         <v>0.61948433328447672</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1682,7 +1362,7 @@
         <v>0.25910139170405233</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -1783,7 +1463,7 @@
         <v>0.82036212609482473</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -1884,7 +1564,7 @@
         <v>0.22649322678555039</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -1985,7 +1665,7 @@
         <v>0.14564445097879439</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -2086,7 +1766,7 @@
         <v>0.65681576202685665</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -2187,7 +1867,7 @@
         <v>0.39701727391206404</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -2288,7 +1968,7 @@
         <v>-0.67262538149908213</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -2402,9 +2082,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2481,7 +2161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2582,7 +2262,7 @@
         <v>0.17190110503556855</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2683,7 +2363,7 @@
         <v>0.27807921266714797</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2784,7 +2464,7 @@
         <v>1.145928674513542</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2885,7 +2565,7 @@
         <v>1.134074331288039</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2986,7 +2666,7 @@
         <v>0.57442305728434762</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3087,7 +2767,7 @@
         <v>0.16106213443232975</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3188,7 +2868,7 @@
         <v>0.74496899541908146</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3289,7 +2969,7 @@
         <v>0.33527074648332855</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -3390,7 +3070,7 @@
         <v>0.827177075392311</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -3491,7 +3171,7 @@
         <v>0.19955954387809891</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -3592,7 +3272,7 @@
         <v>0.12283959883822651</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -3693,7 +3373,7 @@
         <v>0.58750597314681929</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -3794,7 +3474,7 @@
         <v>0.45359499916206381</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -3895,7 +3575,7 @@
         <v>-0.58808625585851815</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -4009,9 +3689,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4088,7 +3768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4189,7 +3869,7 @@
         <v>2.8963508187489866E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4290,7 +3970,7 @@
         <v>-0.19014471764515542</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4391,7 +4071,7 @@
         <v>-0.69534909067865203</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4492,7 +4172,7 @@
         <v>-1.9690791848212128</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4593,7 +4273,7 @@
         <v>-0.33585365567725789</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4694,7 +4374,7 @@
         <v>4.2345780326872612E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4795,7 +4475,7 @@
         <v>-0.49179543306234125</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4896,7 +4576,7 @@
         <v>-0.29511389007441907</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -4997,7 +4677,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -5098,7 +4778,7 @@
         <v>-0.17304132412198533</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -5199,7 +4879,7 @@
         <v>-9.0780612029631044E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -5300,7 +4980,7 @@
         <v>0.26602623409198384</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -5401,7 +5081,7 @@
         <v>4.6473386686260422E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -5502,7 +5182,7 @@
         <v>0.57453058037318705</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -5616,9 +5296,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5695,7 +5375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5796,7 +5476,7 @@
         <v>4.9824089971151148E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5897,7 +5577,7 @@
         <v>-0.18102951697442543</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -5998,7 +5678,7 @@
         <v>-0.79351635927909514</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -6099,7 +5779,7 @@
         <v>-1.9652256231894651</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -6200,7 +5880,7 @@
         <v>-0.33191311418734248</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -6301,7 +5981,7 @@
         <v>5.2139315178814274E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -6402,7 +6082,7 @@
         <v>-0.47898039926197139</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -6503,7 +6183,7 @@
         <v>-0.29678450545832091</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -6604,7 +6284,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -6705,7 +6385,7 @@
         <v>-0.16095774377316835</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -6806,7 +6486,7 @@
         <v>-9.0244841117599256E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -6907,7 +6587,7 @@
         <v>0.16322350848843081</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -7008,7 +6688,7 @@
         <v>2.1119193417658805E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -7109,7 +6789,7 @@
         <v>0.55070508614916847</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -7223,9 +6903,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -7302,7 +6982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7403,7 +7083,7 @@
         <v>7.9525849471180091E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7504,7 +7184,7 @@
         <v>-0.1796335943695542</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7605,7 +7285,7 @@
         <v>-0.83447697063919979</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7706,7 +7386,7 @@
         <v>-1.8777440200093281</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7807,7 +7487,7 @@
         <v>-0.36872985035783223</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -7908,7 +7588,7 @@
         <v>6.9197884360482312E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -8009,7 +7689,7 @@
         <v>-0.59980421351971647</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -8110,7 +7790,7 @@
         <v>-0.2965434760473557</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -8211,7 +7891,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -8312,7 +7992,7 @@
         <v>-0.17714186673676632</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -8413,7 +8093,7 @@
         <v>-9.50212035890447E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -8514,7 +8194,7 @@
         <v>0.22341920841924165</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -8615,7 +8295,7 @@
         <v>-1.4685968056068836E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -8716,7 +8396,7 @@
         <v>0.61304998932000965</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -8830,9 +8510,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -8909,7 +8589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8986,7 +8666,7 @@
         <v>0.70971243622868396</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9063,7 +8743,7 @@
         <v>0.63861762490800034</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9140,7 +8820,7 @@
         <v>0.53511009596457659</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9217,7 +8897,7 @@
         <v>0.36820636350319547</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9294,7 +8974,7 @@
         <v>0.70477394795387305</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9371,7 +9051,7 @@
         <v>0.6912066421962707</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -9448,7 +9128,7 @@
         <v>0.57660389985647309</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -9525,7 +9205,7 @@
         <v>0.46762251402302635</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -9602,7 +9282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -9679,7 +9359,7 @@
         <v>0.64212587416348521</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -9756,7 +9436,7 @@
         <v>0.62565354348533686</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -9833,7 +9513,7 @@
         <v>0.93765677855947238</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -9910,7 +9590,7 @@
         <v>0.73009574182105186</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -9987,7 +9667,7 @@
         <v>-0.62707034977590648</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -10077,9 +9757,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10156,7 +9836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -10233,7 +9913,7 @@
         <v>0.77516969871634223</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -10310,7 +9990,7 @@
         <v>0.61119840523473012</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -10387,7 +10067,7 @@
         <v>0.65629962978554979</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -10464,7 +10144,7 @@
         <v>0.40198284999241007</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -10541,7 +10221,7 @@
         <v>0.69328857906657559</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -10618,7 +10298,7 @@
         <v>0.77226655430345192</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -10695,7 +10375,7 @@
         <v>0.61809815445380845</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -10772,7 +10452,7 @@
         <v>0.51836086220699185</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -10849,7 +10529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -10926,7 +10606,7 @@
         <v>0.64966194105962272</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -11003,7 +10683,7 @@
         <v>0.62454819159792174</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -11080,7 +10760,7 @@
         <v>0.93835114695841482</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -11157,7 +10837,7 @@
         <v>0.71429916484232447</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -11234,7 +10914,7 @@
         <v>-0.62705143158956167</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -11324,9 +11004,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -11403,7 +11083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -11480,7 +11160,7 @@
         <v>0.89107391946947023</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11557,7 +11237,7 @@
         <v>0.6593664632653804</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -11634,7 +11314,7 @@
         <v>0.69639222502756426</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -11711,7 +11391,7 @@
         <v>0.33383653189841339</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -11788,7 +11468,7 @@
         <v>0.59692961115863952</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -11865,7 +11545,7 @@
         <v>0.83981453509917847</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -11942,7 +11622,7 @@
         <v>0.59354719225555275</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -12019,7 +11699,7 @@
         <v>0.53663157069542466</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -12096,7 +11776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -12173,7 +11853,7 @@
         <v>0.59137676435575837</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -12250,7 +11930,7 @@
         <v>0.55177068710271804</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -12327,7 +12007,7 @@
         <v>0.9146363443122133</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -12404,7 +12084,7 @@
         <v>0.83202000478650751</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -12481,7 +12161,7 @@
         <v>-0.5074470188357707</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -12571,9 +12251,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -12650,7 +12330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -12727,7 +12407,7 @@
         <v>0.24136256822908222</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -12804,7 +12484,7 @@
         <v>-0.76057887058062168</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -12881,7 +12561,7 @@
         <v>-0.74768719427812047</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -12958,7 +12638,7 @@
         <v>-0.87127397558460751</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13035,7 +12715,7 @@
         <v>-0.67170731135451578</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -13112,7 +12792,7 @@
         <v>0.35288150272393842</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -13189,7 +12869,7 @@
         <v>-0.79321844042313105</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -13266,7 +12946,7 @@
         <v>-0.95198029056264211</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -13343,7 +13023,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -13420,7 +13100,7 @@
         <v>-0.9107438111683438</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -13497,7 +13177,7 @@
         <v>-0.75650510024692541</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -13574,7 +13254,7 @@
         <v>0.53205246818396768</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -13651,7 +13331,7 @@
         <v>0.14991415060084007</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -13728,7 +13408,7 @@
         <v>0.92666222640836626</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -13818,9 +13498,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13897,7 +13577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -13974,7 +13654,7 @@
         <v>0.41520074975959292</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -14051,7 +13731,7 @@
         <v>-0.72411806789770172</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -14128,7 +13808,7 @@
         <v>-0.85324339707429586</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -14205,7 +13885,7 @@
         <v>-0.86956885981834753</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -14282,7 +13962,7 @@
         <v>-0.66382622837468497</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -14359,7 +14039,7 @@
         <v>0.43449429315678562</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -14436,7 +14116,7 @@
         <v>-0.77254903106769579</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -14513,7 +14193,7 @@
         <v>-0.95736937244619658</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -14590,7 +14270,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -14667,7 +14347,7 @@
         <v>-0.8471460198587808</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -14744,7 +14424,7 @@
         <v>-0.75204034264666053</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -14821,7 +14501,7 @@
         <v>0.32644701697686163</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -14898,7 +14578,7 @@
         <v>6.8126430379544536E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -14975,7 +14655,7 @@
         <v>0.8882340099180136</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -15065,13 +14745,13 @@
       <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15091,7 +14771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15113,7 +14793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15135,7 +14815,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15157,7 +14837,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15179,7 +14859,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15201,7 +14881,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15223,7 +14903,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15245,7 +14925,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15267,7 +14947,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15289,7 +14969,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20</v>
       </c>
@@ -15311,7 +14991,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>21</v>
       </c>
@@ -15333,7 +15013,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>22</v>
       </c>
@@ -15355,7 +15035,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>23</v>
       </c>
@@ -15377,7 +15057,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>24</v>
       </c>
@@ -15399,7 +15079,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>25</v>
       </c>
@@ -15421,7 +15101,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>26</v>
       </c>
@@ -15443,7 +15123,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>50</v>
       </c>
@@ -15465,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>51</v>
       </c>
@@ -15502,9 +15182,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -15581,7 +15261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -15658,7 +15338,7 @@
         <v>0.6627154122598341</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -15735,7 +15415,7 @@
         <v>-0.7185343774782168</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15812,7 +15492,7 @@
         <v>-0.89728706520344059</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15889,7 +15569,7 @@
         <v>-0.83086018584483545</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15966,7 +15646,7 @@
         <v>-0.73745970071566447</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -16043,7 +15723,7 @@
         <v>0.57664903633735265</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -16120,7 +15800,7 @@
         <v>-0.96742615083825245</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -16197,7 +15877,7 @@
         <v>-0.95659185821727644</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -16274,7 +15954,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -16351,7 +16031,7 @@
         <v>-0.93232561440403328</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -16428,7 +16108,7 @@
         <v>-0.79184336324203919</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -16505,7 +16185,7 @@
         <v>0.4468384168384833</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -16582,7 +16262,7 @@
         <v>-4.737409050344786E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -16659,7 +16339,7 @@
         <v>0.98879030535485435</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -16749,9 +16429,9 @@
       <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -16828,7 +16508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -16905,7 +16585,7 @@
         <v>0.73197674418604664</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -16982,7 +16662,7 @@
         <v>0.7042410714285714</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -17059,7 +16739,7 @@
         <v>0.59847266881028949</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -17136,7 +16816,7 @@
         <v>0.48198198198198194</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17213,7 +16893,7 @@
         <v>0.76405622489959824</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -17290,7 +16970,7 @@
         <v>0.705585464333782</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -17367,7 +17047,7 @@
         <v>0.59989429175475695</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -17444,7 +17124,7 @@
         <v>0.44273399014778336</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -17521,7 +17201,7 @@
         <v>0.81091370558375642</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -17598,7 +17278,7 @@
         <v>0.70228494623655902</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -17675,7 +17355,7 @@
         <v>0.64897260273972601</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -17752,7 +17432,7 @@
         <v>0.98911353032659399</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -17829,7 +17509,7 @@
         <v>0.77794117647058825</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -17906,7 +17586,7 @@
         <v>-0.62254901960784315</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -17996,9 +17676,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -18075,7 +17755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -18152,7 +17832,7 @@
         <v>0.78900797724070604</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -18229,7 +17909,7 @@
         <v>0.72380070819729347</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -18306,7 +17986,7 @@
         <v>0.71491767847372367</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -18383,7 +18063,7 @@
         <v>0.54340533683759873</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -18460,7 +18140,7 @@
         <v>0.78092139838746211</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -18537,7 +18217,7 @@
         <v>0.80441936330737829</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -18614,7 +18294,7 @@
         <v>0.61948433328447672</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -18691,7 +18371,7 @@
         <v>0.51820278340810466</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -18768,7 +18448,7 @@
         <v>0.82036212609482473</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -18845,7 +18525,7 @@
         <v>0.75497742261850131</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -18922,7 +18602,7 @@
         <v>0.72822225489397185</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -18999,7 +18679,7 @@
         <v>0.82101970253357071</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -19076,7 +18756,7 @@
         <v>0.79403454782412808</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -19153,7 +18833,7 @@
         <v>-0.67262538149908213</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -19243,9 +18923,9 @@
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -19322,7 +19002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -19399,7 +19079,7 @@
         <v>0.85950552517784262</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -19476,7 +19156,7 @@
         <v>0.69519803166786986</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -19553,7 +19233,7 @@
         <v>0.76395244967569464</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -19630,7 +19310,7 @@
         <v>0.37802477709601301</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -19707,7 +19387,7 @@
         <v>0.71802882160543446</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -19784,7 +19464,7 @@
         <v>0.80531067216164876</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -19861,7 +19541,7 @@
         <v>0.74496899541908146</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -19938,7 +19618,7 @@
         <v>0.6705414929666571</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -20015,7 +19695,7 @@
         <v>0.827177075392311</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -20092,7 +19772,7 @@
         <v>0.66519847959366307</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -20169,7 +19849,7 @@
         <v>0.61419799419113252</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -20246,7 +19926,7 @@
         <v>0.73438246643352412</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -20323,7 +20003,7 @@
         <v>0.90718999832412761</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -20400,7 +20080,7 @@
         <v>-0.58808625585851815</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -20490,9 +20170,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -20569,7 +20249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -20646,7 +20326,7 @@
         <v>0.389261744966443</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -20723,7 +20403,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -20800,7 +20480,7 @@
         <v>-0.47426470588235292</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -20877,7 +20557,7 @@
         <v>-0.77118644067796616</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -20954,7 +20634,7 @@
         <v>-0.13414634146341467</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -21031,7 +20711,7 @@
         <v>0.44531249999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -21108,7 +20788,7 @@
         <v>-0.55434782608695654</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -21185,7 +20865,7 @@
         <v>-0.9580645161290321</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -21262,7 +20942,7 @@
         <v>-8.3333333333333343E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -21339,7 +21019,7 @@
         <v>-0.59259259259259267</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -21416,7 +21096,7 @@
         <v>-0.65322580645161299</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -21493,7 +21173,7 @@
         <v>0.97321428571428581</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -21570,7 +21250,7 @@
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -21647,7 +21327,7 @@
         <v>0.85416666666666674</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -21737,9 +21417,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -21816,7 +21496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -21893,7 +21573,7 @@
         <v>0.4658717648658639</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -21970,7 +21650,7 @@
         <v>-0.3437834711881349</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -22047,7 +21727,7 @@
         <v>-0.90560356890999905</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -22124,7 +21804,7 @@
         <v>-0.79092464472091706</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -22201,7 +21881,7 @@
         <v>-0.40794169392078139</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -22278,7 +21958,7 @@
         <v>0.63259399782814407</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -22355,7 +22035,7 @@
         <v>-0.71303167815369728</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -22432,7 +22112,7 @@
         <v>-0.97667626423617748</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -22509,7 +22189,7 @@
         <v>-5.070687530397832E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -22586,7 +22266,7 @@
         <v>-0.72652379176979498</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -22663,7 +22343,7 @@
         <v>-0.6982562905726597</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -22740,7 +22420,7 @@
         <v>0.33368835665932212</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -22817,7 +22497,7 @@
         <v>0.11871665469109068</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -22894,7 +22574,7 @@
         <v>0.91769497957487511</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -22984,9 +22664,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -23063,7 +22743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -23140,7 +22820,7 @@
         <v>0.40662719328121893</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -23217,7 +22897,7 @@
         <v>-0.58144434221587427</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -23294,7 +22974,7 @@
         <v>-0.84183848256199445</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -23371,7 +23051,7 @@
         <v>-0.75328118336153382</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -23448,7 +23128,7 @@
         <v>-0.34058384071032499</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -23525,7 +23205,7 @@
         <v>0.62050806225313548</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -23602,7 +23282,7 @@
         <v>-0.66241827625658134</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -23679,7 +23359,7 @@
         <v>-0.93806190389788169</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -23756,7 +23436,7 @@
         <v>-0.219759605147821</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -23833,7 +23513,7 @@
         <v>-0.7480717871177559</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -23910,7 +23590,7 @@
         <v>-0.62635197897866912</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -23987,7 +23667,7 @@
         <v>0.12910996004975395</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -24064,7 +23744,7 @@
         <v>0.16173408960714655</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -24141,7 +23821,7 @@
         <v>0.83044318053031863</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -24227,16 +23907,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D12B52-98C9-449E-BF4A-23F7CAD72921}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -24313,306 +23993,234 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <f>'[1]EV Characterization'!B2/2</f>
         <v>0.61455000000000004</v>
       </c>
       <c r="C2" s="1">
-        <f>'[1]EV Characterization'!C2/2</f>
         <v>0.63505</v>
       </c>
       <c r="D2" s="1">
-        <f>'[1]EV Characterization'!D2/2</f>
         <v>0.56864999999999999</v>
       </c>
       <c r="E2" s="1">
-        <f>'[1]EV Characterization'!E2/2</f>
         <v>0.53900000000000003</v>
       </c>
       <c r="F2" s="1">
-        <f>'[1]EV Characterization'!F2/2</f>
         <v>0.44159999999999999</v>
       </c>
       <c r="G2" s="1">
-        <f>'[1]EV Characterization'!G2/2</f>
         <v>0.37480000000000002</v>
       </c>
       <c r="H2" s="1">
-        <f>'[1]EV Characterization'!H2/2</f>
         <v>0.45834999999999998</v>
       </c>
       <c r="I2" s="1">
-        <f>'[1]EV Characterization'!I2/2</f>
         <v>7.9600000000000004E-2</v>
       </c>
       <c r="J2" s="1">
-        <f>'[1]EV Characterization'!J2/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K2" s="1">
-        <f>'[1]EV Characterization'!K2/2</f>
         <v>0.10205</v>
       </c>
       <c r="L2" s="1">
-        <f>'[1]EV Characterization'!L2/2</f>
         <v>6.0100000000000001E-2</v>
       </c>
       <c r="M2" s="1">
-        <f>'[1]EV Characterization'!M2/2</f>
         <v>7.51E-2</v>
       </c>
       <c r="N2" s="1">
-        <f>'[1]EV Characterization'!N2/2</f>
         <v>0.11965000000000001</v>
       </c>
       <c r="O2" s="1">
-        <f>'[1]EV Characterization'!O2/2</f>
         <v>0.22045000000000001</v>
       </c>
       <c r="P2" s="1">
-        <f>'[1]EV Characterization'!P2/2</f>
         <v>0.23519999999999999</v>
       </c>
       <c r="Q2" s="1">
-        <f>'[1]EV Characterization'!Q2/2</f>
         <v>0.23130000000000001</v>
       </c>
       <c r="R2" s="1">
-        <f>'[1]EV Characterization'!R2/2</f>
         <v>0.12975</v>
       </c>
       <c r="S2" s="1">
-        <f>'[1]EV Characterization'!S2/2</f>
         <v>0.26429999999999998</v>
       </c>
       <c r="T2" s="1">
-        <f>'[1]EV Characterization'!T2/2</f>
         <v>0.15509999999999999</v>
       </c>
       <c r="U2" s="1">
-        <f>'[1]EV Characterization'!U2/2</f>
         <v>0.10904999999999999</v>
       </c>
       <c r="V2" s="1">
-        <f>'[1]EV Characterization'!V2/2</f>
         <v>0.1656</v>
       </c>
       <c r="W2" s="1">
-        <f>'[1]EV Characterization'!W2/2</f>
         <v>0.10235</v>
       </c>
       <c r="X2" s="1">
-        <f>'[1]EV Characterization'!X2/2</f>
         <v>0.46715000000000001</v>
       </c>
       <c r="Y2" s="1">
-        <f>'[1]EV Characterization'!Y2/2</f>
         <v>0.56315000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1">
-        <f>'[1]EV Characterization'!B3/2</f>
         <v>-1.3875</v>
       </c>
       <c r="C3" s="1">
-        <f>'[1]EV Characterization'!C3/2</f>
         <v>-1.4837</v>
       </c>
       <c r="D3" s="1">
-        <f>'[1]EV Characterization'!D3/2</f>
         <v>-1.6687000000000001</v>
       </c>
       <c r="E3" s="1">
-        <f>'[1]EV Characterization'!E3/2</f>
         <v>-1.8000499999999999</v>
       </c>
       <c r="F3" s="1">
-        <f>'[1]EV Characterization'!F3/2</f>
         <v>-1.9239999999999999</v>
       </c>
       <c r="G3" s="1">
-        <f>'[1]EV Characterization'!G3/2</f>
         <v>-2.0997499999999998</v>
       </c>
       <c r="H3" s="1">
-        <f>'[1]EV Characterization'!H3/2</f>
         <v>-2.0035500000000002</v>
       </c>
       <c r="I3" s="1">
-        <f>'[1]EV Characterization'!I3/2</f>
         <v>-2.2474699999999999</v>
       </c>
       <c r="J3" s="1">
-        <f>'[1]EV Characterization'!J3/2</f>
         <v>-2.0384199999999999</v>
       </c>
       <c r="K3" s="1">
-        <f>'[1]EV Characterization'!K3/2</f>
         <v>-2.9941049999999998</v>
       </c>
       <c r="L3" s="1">
-        <f>'[1]EV Characterization'!L3/2</f>
         <v>-2.9634200000000002</v>
       </c>
       <c r="M3" s="1">
-        <f>'[1]EV Characterization'!M3/2</f>
         <v>-2.7090200000000002</v>
       </c>
       <c r="N3" s="1">
-        <f>'[1]EV Characterization'!N3/2</f>
         <v>-2.5968200000000001</v>
       </c>
       <c r="O3" s="1">
-        <f>'[1]EV Characterization'!O3/2</f>
         <v>-2.5071850000000002</v>
       </c>
       <c r="P3" s="1">
-        <f>'[1]EV Characterization'!P3/2</f>
         <v>-2.36321</v>
       </c>
       <c r="Q3" s="1">
-        <f>'[1]EV Characterization'!Q3/2</f>
         <v>-2.1505299999999998</v>
       </c>
       <c r="R3" s="1">
-        <f>'[1]EV Characterization'!R3/2</f>
         <v>-2.0108700000000002</v>
       </c>
       <c r="S3" s="1">
-        <f>'[1]EV Characterization'!S3/2</f>
         <v>-1.7995300000000001</v>
       </c>
       <c r="T3" s="1">
-        <f>'[1]EV Characterization'!T3/2</f>
         <v>-1.142215</v>
       </c>
       <c r="U3" s="1">
-        <f>'[1]EV Characterization'!U3/2</f>
         <v>-1.2783100000000001</v>
       </c>
       <c r="V3" s="1">
-        <f>'[1]EV Characterization'!V3/2</f>
         <v>-1.3512299999999999</v>
       </c>
       <c r="W3" s="1">
-        <f>'[1]EV Characterization'!W3/2</f>
         <v>-1.4506749999999999</v>
       </c>
       <c r="X3" s="1">
-        <f>'[1]EV Characterization'!X3/2</f>
         <v>-1.15255</v>
       </c>
       <c r="Y3" s="1">
-        <f>'[1]EV Characterization'!Y3/2</f>
         <v>-1.2246999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <f>'[1]EV Characterization'!B4/2</f>
         <v>1.336695</v>
       </c>
       <c r="C4" s="1">
-        <f>'[1]EV Characterization'!C4/2</f>
         <v>1.43004</v>
       </c>
       <c r="D4" s="1">
-        <f>'[1]EV Characterization'!D4/2</f>
         <v>1.603405</v>
       </c>
       <c r="E4" s="1">
-        <f>'[1]EV Characterization'!E4/2</f>
         <v>1.7253050000000001</v>
       </c>
       <c r="F4" s="1">
-        <f>'[1]EV Characterization'!F4/2</f>
         <v>1.836425</v>
       </c>
       <c r="G4" s="1">
-        <f>'[1]EV Characterization'!G4/2</f>
         <v>2.0052500000000002</v>
       </c>
       <c r="H4" s="1">
-        <f>'[1]EV Characterization'!H4/2</f>
         <v>1.9117500000000001</v>
       </c>
       <c r="I4" s="1">
-        <f>'[1]EV Characterization'!I4/2</f>
         <v>2.1573950000000002</v>
       </c>
       <c r="J4" s="1">
-        <f>'[1]EV Characterization'!J4/2</f>
         <v>1.976145</v>
       </c>
       <c r="K4" s="1">
-        <f>'[1]EV Characterization'!K4/2</f>
         <v>2.2549299999999999</v>
       </c>
       <c r="L4" s="1">
-        <f>'[1]EV Characterization'!L4/2</f>
         <v>2.2726850000000001</v>
       </c>
       <c r="M4" s="1">
-        <f>'[1]EV Characterization'!M4/2</f>
         <v>2.1274549999999999</v>
       </c>
       <c r="N4" s="1">
-        <f>'[1]EV Characterization'!N4/2</f>
         <v>2.0557500000000002</v>
       </c>
       <c r="O4" s="1">
-        <f>'[1]EV Characterization'!O4/2</f>
         <v>2.00291</v>
       </c>
       <c r="P4" s="1">
-        <f>'[1]EV Characterization'!P4/2</f>
         <v>1.87704</v>
       </c>
       <c r="Q4" s="1">
-        <f>'[1]EV Characterization'!Q4/2</f>
         <v>1.7089350000000001</v>
       </c>
       <c r="R4" s="1">
-        <f>'[1]EV Characterization'!R4/2</f>
         <v>1.5920049999999999</v>
       </c>
       <c r="S4" s="1">
-        <f>'[1]EV Characterization'!S4/2</f>
         <v>1.42286</v>
       </c>
       <c r="T4" s="1">
-        <f>'[1]EV Characterization'!T4/2</f>
         <v>1.1136699999999999</v>
       </c>
       <c r="U4" s="1">
-        <f>'[1]EV Characterization'!U4/2</f>
         <v>1.2465200000000001</v>
       </c>
       <c r="V4" s="1">
-        <f>'[1]EV Characterization'!V4/2</f>
         <v>1.32457</v>
       </c>
       <c r="W4" s="1">
-        <f>'[1]EV Characterization'!W4/2</f>
         <v>1.42682</v>
       </c>
       <c r="X4" s="1">
-        <f>'[1]EV Characterization'!X4/2</f>
         <v>1.11025</v>
       </c>
       <c r="Y4" s="1">
-        <f>'[1]EV Characterization'!Y4/2</f>
         <v>1.1806000000000001</v>
       </c>
     </row>
@@ -24629,9 +24237,9 @@
       <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -24708,7 +24316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -24809,7 +24417,7 @@
         <v>0.1419424872457368</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -24910,7 +24518,7 @@
         <v>0.25544704996320017</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -25011,7 +24619,7 @@
         <v>0.80266514394686483</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -25112,7 +24720,7 @@
         <v>1.1046190905095865</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -25213,7 +24821,7 @@
         <v>0.56381915836309848</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -25314,7 +24922,7 @@
         <v>0.13824132843925416</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -25415,7 +25023,7 @@
         <v>0.57660389985647309</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -25516,7 +25124,7 @@
         <v>0.23381125701151317</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -25617,7 +25225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -25718,7 +25326,7 @@
         <v>0.19263776224904555</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -25819,7 +25427,7 @@
         <v>0.12513070869706738</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -25920,7 +25528,7 @@
         <v>0.75012542284757799</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -26021,7 +25629,7 @@
         <v>0.36504787091052593</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -26122,7 +25730,7 @@
         <v>-0.62707034977590648</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -26232,13 +25840,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E009FD-0667-4532-912F-526E6E8CA07E}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -26315,7 +25923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -26416,7 +26024,7 @@
         <v>0.15503393974326846</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -26517,7 +26125,7 @@
         <v>0.24447936209389207</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -26618,7 +26226,7 @@
         <v>0.98444944467832474</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -26719,7 +26327,7 @@
         <v>1.2059485499772302</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -26820,7 +26428,7 @@
         <v>0.5546308632532605</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -26921,7 +26529,7 @@
         <v>0.15445331086069039</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -27022,7 +26630,7 @@
         <v>0.61809815445380845</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -27123,7 +26731,7 @@
         <v>0.25918043110349592</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -27224,7 +26832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -27325,7 +26933,7 @@
         <v>0.19489858231788681</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -27426,7 +27034,7 @@
         <v>0.12490963831958435</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -27527,7 +27135,7 @@
         <v>0.75068091756673194</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -27628,7 +27236,7 @@
         <v>0.35714958242116224</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -27729,7 +27337,7 @@
         <v>-0.62705143158956167</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -27843,9 +27451,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -27922,7 +27530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -28023,7 +27631,7 @@
         <v>0.17821478389389406</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -28124,7 +27732,7 @@
         <v>0.26374658530615219</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -28225,7 +27833,7 @@
         <v>1.0445883375413465</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -28326,7 +27934,7 @@
         <v>1.0015095956952402</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -28427,7 +28035,7 @@
         <v>0.47754368892691162</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -28528,7 +28136,7 @@
         <v>0.16796290701983571</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -28629,7 +28237,7 @@
         <v>0.59354719225555275</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -28730,7 +28338,7 @@
         <v>0.26831578534771233</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -28831,7 +28439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -28932,7 +28540,7 @@
         <v>0.1774130293067275</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -29033,7 +28641,7 @@
         <v>0.11035413742054362</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -29134,7 +28742,7 @@
         <v>0.73170907544977071</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -29235,7 +28843,7 @@
         <v>0.41601000239325375</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -29336,7 +28944,7 @@
         <v>-0.5074470188357707</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -29450,9 +29058,9 @@
       <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -29529,7 +29137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -29630,7 +29238,7 @@
         <v>2.8963508187489866E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -29731,7 +29339,7 @@
         <v>-0.19014471764515542</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -29832,7 +29440,7 @@
         <v>-0.69534909067865203</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -29933,7 +29541,7 @@
         <v>-1.9690791848212128</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -30034,7 +29642,7 @@
         <v>-0.33585365567725789</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -30135,7 +29743,7 @@
         <v>4.2345780326872612E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -30236,7 +29844,7 @@
         <v>-0.49179543306234125</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -30337,7 +29945,7 @@
         <v>-0.29511389007441907</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -30438,7 +30046,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -30539,7 +30147,7 @@
         <v>-0.17304132412198533</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -30640,7 +30248,7 @@
         <v>-9.0780612029631044E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -30741,7 +30349,7 @@
         <v>0.26602623409198384</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -30842,7 +30450,7 @@
         <v>4.6473386686260422E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -30943,7 +30551,7 @@
         <v>0.57453058037318705</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -31057,9 +30665,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -31136,7 +30744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -31237,7 +30845,7 @@
         <v>4.9824089971151148E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -31338,7 +30946,7 @@
         <v>-0.18102951697442543</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -31439,7 +31047,7 @@
         <v>-0.79351635927909514</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -31540,7 +31148,7 @@
         <v>-1.9652256231894651</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -31641,7 +31249,7 @@
         <v>-0.33191311418734248</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -31742,7 +31350,7 @@
         <v>5.2139315178814274E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -31843,7 +31451,7 @@
         <v>-0.47898039926197139</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -31944,7 +31552,7 @@
         <v>-0.29678450545832091</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -32045,7 +31653,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -32146,7 +31754,7 @@
         <v>-0.16095774377316835</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -32247,7 +31855,7 @@
         <v>-9.0244841117599256E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -32348,7 +31956,7 @@
         <v>0.16322350848843081</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -32449,7 +32057,7 @@
         <v>2.1119193417658805E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -32550,7 +32158,7 @@
         <v>0.55070508614916847</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -32664,9 +32272,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -32743,7 +32351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -32844,7 +32452,7 @@
         <v>7.9525849471180091E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -32945,7 +32553,7 @@
         <v>-0.1796335943695542</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -33046,7 +32654,7 @@
         <v>-0.83447697063919979</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -33147,7 +32755,7 @@
         <v>-1.8777440200093281</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -33248,7 +32856,7 @@
         <v>-0.36872985035783223</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -33349,7 +32957,7 @@
         <v>6.9197884360482312E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -33450,7 +33058,7 @@
         <v>-0.59980421351971647</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -33551,7 +33159,7 @@
         <v>-0.2965434760473557</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -33652,7 +33260,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -33753,7 +33361,7 @@
         <v>-0.17714186673676632</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -33854,7 +33462,7 @@
         <v>-9.50212035890447E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -33955,7 +33563,7 @@
         <v>0.22341920841924165</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -34056,7 +33664,7 @@
         <v>-1.4685968056068836E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -34157,7 +33765,7 @@
         <v>0.61304998932000965</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -34271,9 +33879,9 @@
       <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -34350,7 +33958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -34451,7 +34059,7 @@
         <v>0.14639534883720934</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -34552,7 +34160,7 @@
         <v>0.28169642857142857</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -34653,7 +34261,7 @@
         <v>0.89770900321543423</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -34754,7 +34362,7 @@
         <v>1.4459459459459458</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -34855,7 +34463,7 @@
         <v>0.61124497991967863</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -34956,7 +34564,7 @@
         <v>0.14111709286675642</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -35057,7 +34665,7 @@
         <v>0.59989429175475695</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -35158,7 +34766,7 @@
         <v>0.22136699507389168</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -35259,7 +34867,7 @@
         <v>0.81091370558375642</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -35360,7 +34968,7 @@
         <v>0.21068548387096769</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -35461,7 +35069,7 @@
         <v>0.12979452054794521</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -35562,7 +35170,7 @@
         <v>0.79129082426127528</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -35663,7 +35271,7 @@
         <v>0.38897058823529412</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -35764,7 +35372,7 @@
         <v>-0.62254901960784315</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>

--- a/data/CS1/case18_1/case18_1_base.xlsx
+++ b/data/CS1/case18_1/case18_1_base.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1\case18_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F14D0-7BCB-45D2-83D5-6CBB2DA4C194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07200EB2-0252-4D0D-8DFE-24A4E6862400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="23" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
